--- a/pandas_simple.xlsx
+++ b/pandas_simple.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -167,12 +167,24 @@
   </si>
   <si>
     <t>Offerte libere</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="$#,##0"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -225,11 +237,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,13 +538,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -578,8 +592,11 @@
       <c r="H2">
         <v>1001</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -604,8 +621,11 @@
       <c r="H3">
         <v>800</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -631,7 +651,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -657,7 +677,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -683,7 +703,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -709,7 +729,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -735,7 +755,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -761,7 +781,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -787,7 +807,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -813,7 +833,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -839,7 +859,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -865,7 +885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -891,7 +911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -917,7 +937,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1567,19 +1587,18 @@
         <v>31</v>
       </c>
     </row>
+    <row r="42" spans="1:8">
+      <c r="H42" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="H43" s="3">
+        <f>SUM(H2:H40)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H40">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/pandas_simple.xlsx
+++ b/pandas_simple.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -185,10 +185,26 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="$#,##0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -237,12 +253,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -543,38 +561,41 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="15.7109375" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
@@ -592,18 +613,18 @@
       <c r="H2">
         <v>1001</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
@@ -621,18 +642,18 @@
       <c r="H3">
         <v>800</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
@@ -652,13 +673,13 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
@@ -678,13 +699,13 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
@@ -704,13 +725,13 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="1">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
@@ -730,13 +751,13 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
@@ -756,13 +777,13 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
@@ -782,13 +803,13 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
@@ -808,13 +829,13 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="1">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
@@ -834,13 +855,13 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
@@ -860,13 +881,13 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
@@ -886,13 +907,13 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D14" t="s">
@@ -912,13 +933,13 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D15" t="s">
@@ -938,13 +959,13 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D16" t="s">
@@ -964,13 +985,13 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="1">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D17" t="s">
@@ -990,13 +1011,13 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
@@ -1016,13 +1037,13 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D19" t="s">
@@ -1042,13 +1063,13 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
         <v>21</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D20" t="s">
@@ -1068,13 +1089,13 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>23</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D21" t="s">
@@ -1094,13 +1115,13 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>25</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D22" t="s">
@@ -1120,13 +1141,13 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>26</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D23" t="s">
@@ -1146,13 +1167,13 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>27</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D24" t="s">
@@ -1172,13 +1193,13 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>30</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
@@ -1198,13 +1219,13 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="1">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>35</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D26" t="s">
@@ -1224,13 +1245,13 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>36</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
@@ -1250,13 +1271,13 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="1">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>37</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D28" t="s">
@@ -1276,13 +1297,13 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="1">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>38</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D29" t="s">
@@ -1302,13 +1323,13 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="1">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>39</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
@@ -1328,13 +1349,13 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="1">
+      <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>40</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D31" t="s">
@@ -1354,13 +1375,13 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="1">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>41</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D32" t="s">
@@ -1380,13 +1401,13 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="1">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>42</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D33" t="s">
@@ -1406,13 +1427,13 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="1">
+      <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>43</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D34" t="s">
@@ -1432,13 +1453,13 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="1">
+      <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>44</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D35" t="s">
@@ -1458,13 +1479,13 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="1">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>45</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D36" t="s">
@@ -1484,13 +1505,13 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="1">
+      <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>46</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D37" t="s">
@@ -1510,13 +1531,13 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="1">
+      <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>47</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D38" t="s">
@@ -1536,13 +1557,13 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="1">
+      <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>48</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
@@ -1562,13 +1583,13 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="1">
+      <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>49</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D40" t="s">
@@ -1588,12 +1609,12 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="H42" s="2" t="s">
+      <c r="H42" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="H43" s="3">
+      <c r="H43" s="5">
         <f>SUM(H2:H40)</f>
         <v>0</v>
       </c>

--- a/pandas_simple.xlsx
+++ b/pandas_simple.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -566,6 +566,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -589,8 +592,8 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="3">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>51</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -618,8 +621,8 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>51</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -647,8 +650,8 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="3">
-        <v>2</v>
+      <c r="A4" t="s">
+        <v>51</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -673,8 +676,8 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="3">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>51</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>

--- a/pandas_simple.xlsx
+++ b/pandas_simple.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Dati" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dati!$B$3:$G$41</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -37,15 +40,6 @@
     <t>Euro</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
     <t>Gennaio</t>
   </si>
   <si>
@@ -109,9 +103,6 @@
     <t>Servizi_religiosi</t>
   </si>
   <si>
-    <t>fra...</t>
-  </si>
-  <si>
     <t>fra gabri</t>
   </si>
   <si>
@@ -167,6 +158,9 @@
   </si>
   <si>
     <t>Offerte libere</t>
+  </si>
+  <si>
+    <t>Semi, Ortaggi</t>
   </si>
   <si>
     <t>Conti Convento</t>
@@ -544,22 +538,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -567,15 +561,13 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -598,930 +590,931 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2022</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2022</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2022</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2022</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2022</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2022</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="1">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2022</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="B11">
+        <v>2022</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="1">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="1">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="G11" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="B12">
+        <v>2022</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2022</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2022</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="1">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="1">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G14" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:7">
       <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2022</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G15" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:7">
       <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>2022</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G16" s="1">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>2022</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G17" s="1">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>2022</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G18" s="1">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>2022</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
         <v>36</v>
       </c>
       <c r="G19" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>2022</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G20" s="1">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>2022</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
         <v>38</v>
       </c>
       <c r="G21" s="1">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>2022</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G22" s="1">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>2022</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
         <v>17</v>
       </c>
-      <c r="E23" t="s">
-        <v>27</v>
-      </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G23" s="1">
-        <v>34</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>2022</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" t="s">
-        <v>20</v>
-      </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G24" s="1">
-        <v>-350</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>2022</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" t="s">
-        <v>28</v>
-      </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="G25" s="1">
-        <v>246</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>2023</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G26" s="1">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>2022</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G27" s="1">
-        <v>34</v>
+        <v>63.9</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>2025</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
         <v>18</v>
       </c>
-      <c r="E28" t="s">
-        <v>23</v>
-      </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G28" s="1">
-        <v>63.9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>2022</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
         <v>36</v>
       </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" t="s">
-        <v>35</v>
-      </c>
       <c r="G29" s="1">
-        <v>-36</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>2022</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G30" s="1">
-        <v>369</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>38</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>2023</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G31" s="1">
-        <v>12.8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>39</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>2022</v>
       </c>
       <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
         <v>14</v>
       </c>
-      <c r="D32" t="s">
-        <v>18</v>
-      </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G32" s="1">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>40</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>2022</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G33" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>41</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>2022</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G34" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>42</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>2022</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G35" s="1">
-        <v>23</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>43</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>2023</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G36" s="1">
-        <v>1.85</v>
+        <v>589</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>44</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>2022</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G37" s="1">
-        <v>589</v>
+        <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>45</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>2022</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G38" s="1">
-        <v>445</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>46</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>2022</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G39" s="1">
-        <v>36.9</v>
+        <v>860</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>47</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>2022</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G40" s="1">
-        <v>860</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>48</v>
-      </c>
-      <c r="B41" t="s">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>2022</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G41" s="1">
-        <v>36.8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>49</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>2022</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G42" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>50</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>2023</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G43" s="1">
-        <v>32</v>
+        <v>36.5</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B3:G41"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="D28:D41">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Entrate">
